--- a/downloads/11.2.Combinación uno a muchos.xlsx
+++ b/downloads/11.2.Combinación uno a muchos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIDIER1\Dropbox\BI (BUSINESS INTELLIGENCE ) LIBRO\POWER QUERY\Capitulo 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Personales\Curso-de-Herramientas-analiticas-para-auditoria-I\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8843A772-0762-460B-85F5-4F31C44BF5B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CBB032-82A2-4162-928A-1F80ADBDAC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{040CA2CE-8FA4-4900-9988-A6CF8EF0A15F}"/>
+    <workbookView xWindow="32580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{040CA2CE-8FA4-4900-9988-A6CF8EF0A15F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,55 +27,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
-    <t>DEPARTAMENTO</t>
-  </si>
-  <si>
     <t>CANTIDAD</t>
   </si>
   <si>
-    <t>VALLE DEL CAUCA</t>
-  </si>
-  <si>
-    <t>ATLANTICO</t>
-  </si>
-  <si>
-    <t>ANTIOQUIA</t>
-  </si>
-  <si>
     <t>CIUDAD</t>
   </si>
   <si>
-    <t>MEDELLIN</t>
-  </si>
-  <si>
-    <t>TURBO</t>
-  </si>
-  <si>
-    <t>CALDAS</t>
-  </si>
-  <si>
-    <t>BARRANQUILLA</t>
-  </si>
-  <si>
-    <t>SOLEDAD</t>
-  </si>
-  <si>
-    <t>SABANALARGA</t>
-  </si>
-  <si>
-    <t>CALI</t>
-  </si>
-  <si>
-    <t>BUENAVENTURA</t>
-  </si>
-  <si>
-    <t>TULUA</t>
-  </si>
-  <si>
-    <t>BUGA</t>
-  </si>
-  <si>
     <t>VENTAS</t>
+  </si>
+  <si>
+    <t>CCAA</t>
+  </si>
+  <si>
+    <t>ANDALUCIA</t>
+  </si>
+  <si>
+    <t>CANARIAS</t>
+  </si>
+  <si>
+    <t>CASTILLA LA MANCHA</t>
+  </si>
+  <si>
+    <t>SEVILLA</t>
+  </si>
+  <si>
+    <t>GRANADA</t>
+  </si>
+  <si>
+    <t>MALAGA</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ DE TENERIFE</t>
+  </si>
+  <si>
+    <t>LAS PALMAS DE GRAN CANARIA</t>
+  </si>
+  <si>
+    <t>LA LAGUNA</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>GUADALAJARA</t>
+  </si>
+  <si>
+    <t>ALBACETE</t>
+  </si>
+  <si>
+    <t>CIUDAD REAL</t>
   </si>
 </sst>
 </file>
@@ -121,10 +121,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
@@ -148,7 +145,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97DA653B-0025-4C5B-8423-EC2CD8026A64}" name="Ventas" displayName="Ventas" ref="B2:D5" totalsRowShown="0">
   <autoFilter ref="B2:D5" xr:uid="{C05AA09D-A0C6-4FD2-B55B-9563AB661C6C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C617CD95-1E26-4BA3-894B-9B9A56225838}" name="DEPARTAMENTO"/>
+    <tableColumn id="1" xr3:uid="{C617CD95-1E26-4BA3-894B-9B9A56225838}" name="CCAA"/>
     <tableColumn id="2" xr3:uid="{B454CF7E-71BA-4A8A-B0CA-0B8997A9213F}" name="CANTIDAD" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{19EBEFB5-43DA-4B8A-945B-5B54FBA85636}" name="VENTAS" dataDxfId="0"/>
   </tableColumns>
@@ -160,7 +157,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7D81FFEE-3543-423D-A561-541CF57DF43D}" name="Departamentos" displayName="Departamentos" ref="F2:G12" totalsRowShown="0">
   <autoFilter ref="F2:G12" xr:uid="{3BCCF640-29C0-4F1B-B083-771294847AAB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{26FF951A-CA55-489A-86A3-FFC9A3526DA1}" name="DEPARTAMENTO"/>
+    <tableColumn id="1" xr3:uid="{26FF951A-CA55-489A-86A3-FFC9A3526DA1}" name="CCAA"/>
     <tableColumn id="2" xr3:uid="{41C03C6C-EFBE-4E42-A008-63ADD5E22416}" name="CIUDAD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -467,7 +464,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,25 +472,25 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -510,12 +507,12 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>4440</v>
@@ -527,12 +524,12 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>7946</v>
@@ -544,63 +541,63 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
